--- a/metrics/transfer_time/cleaned_data/nginx_07.nan.xlsx
+++ b/metrics/transfer_time/cleaned_data/nginx_07.nan.xlsx
@@ -652,18 +652,42 @@
       <c r="S2" t="n">
         <v>763</v>
       </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
+      <c r="T2" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V2" t="n">
+        <v>10820720</v>
+      </c>
+      <c r="W2" t="n">
+        <v>7086</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1105</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -723,18 +747,42 @@
       <c r="S3" t="n">
         <v>762</v>
       </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
+      <c r="T3" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V3" t="n">
+        <v>10820720</v>
+      </c>
+      <c r="W3" t="n">
+        <v>7086</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1105</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -794,18 +842,42 @@
       <c r="S4" t="n">
         <v>761</v>
       </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
+      <c r="T4" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V4" t="n">
+        <v>10820720</v>
+      </c>
+      <c r="W4" t="n">
+        <v>7086</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1105</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -960,18 +1032,42 @@
       <c r="S6" t="n">
         <v>766</v>
       </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
+      <c r="T6" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V6" t="n">
+        <v>10820720</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7086</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1105</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1031,18 +1127,42 @@
       <c r="S7" t="n">
         <v>761</v>
       </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
+      <c r="T7" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V7" t="n">
+        <v>10820720</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7086</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1105</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1102,18 +1222,42 @@
       <c r="S8" t="n">
         <v>760</v>
       </c>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
+      <c r="T8" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V8" t="n">
+        <v>10820720</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7086</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1105</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1173,18 +1317,42 @@
       <c r="S9" t="n">
         <v>760</v>
       </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
+      <c r="T9" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V9" t="n">
+        <v>10820720</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7086</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1105</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1339,18 +1507,42 @@
       <c r="S11" t="n">
         <v>760</v>
       </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
+      <c r="T11" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V11" t="n">
+        <v>10821021</v>
+      </c>
+      <c r="W11" t="n">
+        <v>7086</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1105</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1410,18 +1602,42 @@
       <c r="S12" t="n">
         <v>758</v>
       </c>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
+      <c r="T12" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V12" t="n">
+        <v>10821021</v>
+      </c>
+      <c r="W12" t="n">
+        <v>7086</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1105</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1481,18 +1697,42 @@
       <c r="S13" t="n">
         <v>760</v>
       </c>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
+      <c r="T13" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V13" t="n">
+        <v>10821021</v>
+      </c>
+      <c r="W13" t="n">
+        <v>7086</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1105</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1552,18 +1792,42 @@
       <c r="S14" t="n">
         <v>759</v>
       </c>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
+      <c r="T14" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V14" t="n">
+        <v>10821021</v>
+      </c>
+      <c r="W14" t="n">
+        <v>7086</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1105</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1718,18 +1982,42 @@
       <c r="S16" t="n">
         <v>759</v>
       </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
+      <c r="T16" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V16" t="n">
+        <v>10821321</v>
+      </c>
+      <c r="W16" t="n">
+        <v>7086</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1105</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1789,18 +2077,42 @@
       <c r="S17" t="n">
         <v>759</v>
       </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
+      <c r="T17" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V17" t="n">
+        <v>10821321</v>
+      </c>
+      <c r="W17" t="n">
+        <v>7086</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1105</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1860,18 +2172,42 @@
       <c r="S18" t="n">
         <v>759</v>
       </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
+      <c r="T18" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V18" t="n">
+        <v>10821321</v>
+      </c>
+      <c r="W18" t="n">
+        <v>7086</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1105</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1931,18 +2267,42 @@
       <c r="S19" t="n">
         <v>759</v>
       </c>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
+      <c r="T19" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V19" t="n">
+        <v>10821321</v>
+      </c>
+      <c r="W19" t="n">
+        <v>7086</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1105</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -2097,18 +2457,42 @@
       <c r="S21" t="n">
         <v>759</v>
       </c>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
+      <c r="T21" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V21" t="n">
+        <v>10821621</v>
+      </c>
+      <c r="W21" t="n">
+        <v>7085</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1106</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>13.503</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -2168,18 +2552,42 @@
       <c r="S22" t="n">
         <v>757</v>
       </c>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr"/>
+      <c r="T22" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V22" t="n">
+        <v>10821621</v>
+      </c>
+      <c r="W22" t="n">
+        <v>7085</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1106</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>13.503</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -2239,18 +2647,42 @@
       <c r="S23" t="n">
         <v>758</v>
       </c>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr"/>
+      <c r="T23" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V23" t="n">
+        <v>10821621</v>
+      </c>
+      <c r="W23" t="n">
+        <v>7085</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1106</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>13.503</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -2310,18 +2742,42 @@
       <c r="S24" t="n">
         <v>757</v>
       </c>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
+      <c r="T24" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V24" t="n">
+        <v>10821621</v>
+      </c>
+      <c r="W24" t="n">
+        <v>7085</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1106</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>13.503</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -2476,18 +2932,42 @@
       <c r="S26" t="n">
         <v>756</v>
       </c>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
+      <c r="T26" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V26" t="n">
+        <v>10821921</v>
+      </c>
+      <c r="W26" t="n">
+        <v>7083</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1108</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>13.527</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -2547,18 +3027,42 @@
       <c r="S27" t="n">
         <v>756</v>
       </c>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
+      <c r="T27" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V27" t="n">
+        <v>10821921</v>
+      </c>
+      <c r="W27" t="n">
+        <v>7083</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1108</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>13.527</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -2618,18 +3122,42 @@
       <c r="S28" t="n">
         <v>757</v>
       </c>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
+      <c r="T28" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V28" t="n">
+        <v>10821921</v>
+      </c>
+      <c r="W28" t="n">
+        <v>7083</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1108</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>13.527</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2689,18 +3217,42 @@
       <c r="S29" t="n">
         <v>755</v>
       </c>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
+      <c r="T29" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V29" t="n">
+        <v>10821921</v>
+      </c>
+      <c r="W29" t="n">
+        <v>7083</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1108</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>13.527</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2855,18 +3407,42 @@
       <c r="S31" t="n">
         <v>755</v>
       </c>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
+      <c r="T31" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V31" t="n">
+        <v>10822221</v>
+      </c>
+      <c r="W31" t="n">
+        <v>7082</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1109</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>13.539</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2926,18 +3502,42 @@
       <c r="S32" t="n">
         <v>754</v>
       </c>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
+      <c r="T32" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V32" t="n">
+        <v>10822221</v>
+      </c>
+      <c r="W32" t="n">
+        <v>7082</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1109</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>13.539</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2997,18 +3597,42 @@
       <c r="S33" t="n">
         <v>755</v>
       </c>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr"/>
+      <c r="T33" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V33" t="n">
+        <v>10822221</v>
+      </c>
+      <c r="W33" t="n">
+        <v>7082</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1109</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>13.539</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -3068,18 +3692,42 @@
       <c r="S34" t="n">
         <v>755</v>
       </c>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
+      <c r="T34" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V34" t="n">
+        <v>10822221</v>
+      </c>
+      <c r="W34" t="n">
+        <v>7082</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1109</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>13.539</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -3234,18 +3882,42 @@
       <c r="S36" t="n">
         <v>754</v>
       </c>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="inlineStr"/>
+      <c r="T36" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V36" t="n">
+        <v>10822521</v>
+      </c>
+      <c r="W36" t="n">
+        <v>7081</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>1110</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>13.551</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -3305,18 +3977,42 @@
       <c r="S37" t="n">
         <v>756</v>
       </c>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="inlineStr"/>
+      <c r="T37" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V37" t="n">
+        <v>10822521</v>
+      </c>
+      <c r="W37" t="n">
+        <v>7081</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1110</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>13.551</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -3376,18 +4072,42 @@
       <c r="S38" t="n">
         <v>755</v>
       </c>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr"/>
-      <c r="AE38" t="inlineStr"/>
+      <c r="T38" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V38" t="n">
+        <v>10822521</v>
+      </c>
+      <c r="W38" t="n">
+        <v>7081</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1110</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>13.551</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -3447,18 +4167,42 @@
       <c r="S39" t="n">
         <v>754</v>
       </c>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="inlineStr"/>
-      <c r="AE39" t="inlineStr"/>
+      <c r="T39" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V39" t="n">
+        <v>10822521</v>
+      </c>
+      <c r="W39" t="n">
+        <v>7081</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1110</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>13.551</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -3613,18 +4357,42 @@
       <c r="S41" t="n">
         <v>753</v>
       </c>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="inlineStr"/>
-      <c r="AE41" t="inlineStr"/>
+      <c r="T41" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V41" t="n">
+        <v>10822821</v>
+      </c>
+      <c r="W41" t="n">
+        <v>7081</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1110</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>13.551</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -3684,18 +4452,42 @@
       <c r="S42" t="n">
         <v>752</v>
       </c>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="inlineStr"/>
-      <c r="AE42" t="inlineStr"/>
+      <c r="T42" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V42" t="n">
+        <v>10822821</v>
+      </c>
+      <c r="W42" t="n">
+        <v>7081</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1110</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>13.551</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -3755,18 +4547,42 @@
       <c r="S43" t="n">
         <v>752</v>
       </c>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr"/>
-      <c r="AD43" t="inlineStr"/>
-      <c r="AE43" t="inlineStr"/>
+      <c r="T43" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V43" t="n">
+        <v>10822821</v>
+      </c>
+      <c r="W43" t="n">
+        <v>7081</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1110</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>13.551</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -3826,18 +4642,42 @@
       <c r="S44" t="n">
         <v>750</v>
       </c>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="inlineStr"/>
-      <c r="AE44" t="inlineStr"/>
+      <c r="T44" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V44" t="n">
+        <v>10822821</v>
+      </c>
+      <c r="W44" t="n">
+        <v>7081</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1110</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>13.551</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -3992,18 +4832,42 @@
       <c r="S46" t="n">
         <v>750</v>
       </c>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="inlineStr"/>
-      <c r="AC46" t="inlineStr"/>
-      <c r="AD46" t="inlineStr"/>
-      <c r="AE46" t="inlineStr"/>
+      <c r="T46" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V46" t="n">
+        <v>10823121</v>
+      </c>
+      <c r="W46" t="n">
+        <v>7081</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>1110</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>13.551</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -4063,18 +4927,42 @@
       <c r="S47" t="n">
         <v>751</v>
       </c>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr"/>
-      <c r="AB47" t="inlineStr"/>
-      <c r="AC47" t="inlineStr"/>
-      <c r="AD47" t="inlineStr"/>
-      <c r="AE47" t="inlineStr"/>
+      <c r="T47" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V47" t="n">
+        <v>10823121</v>
+      </c>
+      <c r="W47" t="n">
+        <v>7081</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>1110</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>13.551</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -4134,18 +5022,42 @@
       <c r="S48" t="n">
         <v>752</v>
       </c>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
-      <c r="AA48" t="inlineStr"/>
-      <c r="AB48" t="inlineStr"/>
-      <c r="AC48" t="inlineStr"/>
-      <c r="AD48" t="inlineStr"/>
-      <c r="AE48" t="inlineStr"/>
+      <c r="T48" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V48" t="n">
+        <v>10823121</v>
+      </c>
+      <c r="W48" t="n">
+        <v>7081</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1110</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>13.551</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -4205,18 +5117,42 @@
       <c r="S49" t="n">
         <v>752</v>
       </c>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
-      <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="inlineStr"/>
-      <c r="AD49" t="inlineStr"/>
-      <c r="AE49" t="inlineStr"/>
+      <c r="T49" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V49" t="n">
+        <v>10823121</v>
+      </c>
+      <c r="W49" t="n">
+        <v>7081</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1110</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>13.551</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -4371,18 +5307,42 @@
       <c r="S51" t="n">
         <v>751</v>
       </c>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="inlineStr"/>
-      <c r="AB51" t="inlineStr"/>
-      <c r="AC51" t="inlineStr"/>
-      <c r="AD51" t="inlineStr"/>
-      <c r="AE51" t="inlineStr"/>
+      <c r="T51" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V51" t="n">
+        <v>10823421</v>
+      </c>
+      <c r="W51" t="n">
+        <v>7081</v>
+      </c>
+      <c r="X51" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1110</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>13.551</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -4442,18 +5402,42 @@
       <c r="S52" t="n">
         <v>748</v>
       </c>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
-      <c r="AA52" t="inlineStr"/>
-      <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="inlineStr"/>
-      <c r="AD52" t="inlineStr"/>
-      <c r="AE52" t="inlineStr"/>
+      <c r="T52" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V52" t="n">
+        <v>10823421</v>
+      </c>
+      <c r="W52" t="n">
+        <v>7081</v>
+      </c>
+      <c r="X52" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>1110</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>13.551</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -4513,18 +5497,42 @@
       <c r="S53" t="n">
         <v>748</v>
       </c>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
-      <c r="AA53" t="inlineStr"/>
-      <c r="AB53" t="inlineStr"/>
-      <c r="AC53" t="inlineStr"/>
-      <c r="AD53" t="inlineStr"/>
-      <c r="AE53" t="inlineStr"/>
+      <c r="T53" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V53" t="n">
+        <v>10823421</v>
+      </c>
+      <c r="W53" t="n">
+        <v>7081</v>
+      </c>
+      <c r="X53" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>1110</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>13.551</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -4584,18 +5592,42 @@
       <c r="S54" t="n">
         <v>747</v>
       </c>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr"/>
-      <c r="AB54" t="inlineStr"/>
-      <c r="AC54" t="inlineStr"/>
-      <c r="AD54" t="inlineStr"/>
-      <c r="AE54" t="inlineStr"/>
+      <c r="T54" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V54" t="n">
+        <v>10823421</v>
+      </c>
+      <c r="W54" t="n">
+        <v>7081</v>
+      </c>
+      <c r="X54" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>1110</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>13.551</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -4750,18 +5782,42 @@
       <c r="S56" t="n">
         <v>743</v>
       </c>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="inlineStr"/>
-      <c r="AC56" t="inlineStr"/>
-      <c r="AD56" t="inlineStr"/>
-      <c r="AE56" t="inlineStr"/>
+      <c r="T56" t="n">
+        <v>1472</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="V56" t="n">
+        <v>10823720</v>
+      </c>
+      <c r="W56" t="n">
+        <v>7080</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>1111</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>13.564</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -4821,18 +5877,42 @@
       <c r="S57" t="n">
         <v>742</v>
       </c>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="inlineStr"/>
-      <c r="AE57" t="inlineStr"/>
+      <c r="T57" t="n">
+        <v>1472</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="V57" t="n">
+        <v>10823720</v>
+      </c>
+      <c r="W57" t="n">
+        <v>7080</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1111</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>13.564</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -4892,18 +5972,42 @@
       <c r="S58" t="n">
         <v>739</v>
       </c>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
-      <c r="AB58" t="inlineStr"/>
-      <c r="AC58" t="inlineStr"/>
-      <c r="AD58" t="inlineStr"/>
-      <c r="AE58" t="inlineStr"/>
+      <c r="T58" t="n">
+        <v>1472</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="V58" t="n">
+        <v>10823720</v>
+      </c>
+      <c r="W58" t="n">
+        <v>7080</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>1111</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>13.564</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -4963,18 +6067,42 @@
       <c r="S59" t="n">
         <v>740</v>
       </c>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="inlineStr"/>
-      <c r="AB59" t="inlineStr"/>
-      <c r="AC59" t="inlineStr"/>
-      <c r="AD59" t="inlineStr"/>
-      <c r="AE59" t="inlineStr"/>
+      <c r="T59" t="n">
+        <v>1472</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="V59" t="n">
+        <v>10823720</v>
+      </c>
+      <c r="W59" t="n">
+        <v>7080</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>1111</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>13.564</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -5224,18 +6352,42 @@
       <c r="S62" t="n">
         <v>739</v>
       </c>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
-      <c r="AA62" t="inlineStr"/>
-      <c r="AB62" t="inlineStr"/>
-      <c r="AC62" t="inlineStr"/>
-      <c r="AD62" t="inlineStr"/>
-      <c r="AE62" t="inlineStr"/>
+      <c r="T62" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V62" t="n">
+        <v>10824020</v>
+      </c>
+      <c r="W62" t="n">
+        <v>7078</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>1113</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>13.588</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -5295,18 +6447,42 @@
       <c r="S63" t="n">
         <v>740</v>
       </c>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="inlineStr"/>
-      <c r="AB63" t="inlineStr"/>
-      <c r="AC63" t="inlineStr"/>
-      <c r="AD63" t="inlineStr"/>
-      <c r="AE63" t="inlineStr"/>
+      <c r="T63" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V63" t="n">
+        <v>10824020</v>
+      </c>
+      <c r="W63" t="n">
+        <v>7078</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>1113</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>13.588</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -5366,18 +6542,42 @@
       <c r="S64" t="n">
         <v>740</v>
       </c>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
-      <c r="AA64" t="inlineStr"/>
-      <c r="AB64" t="inlineStr"/>
-      <c r="AC64" t="inlineStr"/>
-      <c r="AD64" t="inlineStr"/>
-      <c r="AE64" t="inlineStr"/>
+      <c r="T64" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V64" t="n">
+        <v>10824020</v>
+      </c>
+      <c r="W64" t="n">
+        <v>7078</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>1113</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>13.588</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -5532,18 +6732,42 @@
       <c r="S66" t="n">
         <v>738</v>
       </c>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
-      <c r="AA66" t="inlineStr"/>
-      <c r="AB66" t="inlineStr"/>
-      <c r="AC66" t="inlineStr"/>
-      <c r="AD66" t="inlineStr"/>
-      <c r="AE66" t="inlineStr"/>
+      <c r="T66" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V66" t="n">
+        <v>10824320</v>
+      </c>
+      <c r="W66" t="n">
+        <v>7079</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>1112</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>13.576</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -5603,18 +6827,42 @@
       <c r="S67" t="n">
         <v>739</v>
       </c>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
-      <c r="AA67" t="inlineStr"/>
-      <c r="AB67" t="inlineStr"/>
-      <c r="AC67" t="inlineStr"/>
-      <c r="AD67" t="inlineStr"/>
-      <c r="AE67" t="inlineStr"/>
+      <c r="T67" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V67" t="n">
+        <v>10824320</v>
+      </c>
+      <c r="W67" t="n">
+        <v>7079</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>1112</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>13.576</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -5674,18 +6922,42 @@
       <c r="S68" t="n">
         <v>737</v>
       </c>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
-      <c r="AA68" t="inlineStr"/>
-      <c r="AB68" t="inlineStr"/>
-      <c r="AC68" t="inlineStr"/>
-      <c r="AD68" t="inlineStr"/>
-      <c r="AE68" t="inlineStr"/>
+      <c r="T68" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V68" t="n">
+        <v>10824320</v>
+      </c>
+      <c r="W68" t="n">
+        <v>7079</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>1112</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>13.576</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -5745,18 +7017,42 @@
       <c r="S69" t="n">
         <v>738</v>
       </c>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr"/>
-      <c r="AA69" t="inlineStr"/>
-      <c r="AB69" t="inlineStr"/>
-      <c r="AC69" t="inlineStr"/>
-      <c r="AD69" t="inlineStr"/>
-      <c r="AE69" t="inlineStr"/>
+      <c r="T69" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V69" t="n">
+        <v>10824320</v>
+      </c>
+      <c r="W69" t="n">
+        <v>7079</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>1112</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>13.576</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -5911,18 +7207,42 @@
       <c r="S71" t="n">
         <v>738</v>
       </c>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="inlineStr"/>
-      <c r="AA71" t="inlineStr"/>
-      <c r="AB71" t="inlineStr"/>
-      <c r="AC71" t="inlineStr"/>
-      <c r="AD71" t="inlineStr"/>
-      <c r="AE71" t="inlineStr"/>
+      <c r="T71" t="n">
+        <v>1472</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="V71" t="n">
+        <v>10824620</v>
+      </c>
+      <c r="W71" t="n">
+        <v>7079</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>1112</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>13.576</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>171</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -5982,18 +7302,42 @@
       <c r="S72" t="n">
         <v>735</v>
       </c>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr"/>
-      <c r="AA72" t="inlineStr"/>
-      <c r="AB72" t="inlineStr"/>
-      <c r="AC72" t="inlineStr"/>
-      <c r="AD72" t="inlineStr"/>
-      <c r="AE72" t="inlineStr"/>
+      <c r="T72" t="n">
+        <v>1472</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="V72" t="n">
+        <v>10824620</v>
+      </c>
+      <c r="W72" t="n">
+        <v>7079</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>1112</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>13.576</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>171</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -6053,18 +7397,42 @@
       <c r="S73" t="n">
         <v>736</v>
       </c>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
-      <c r="AA73" t="inlineStr"/>
-      <c r="AB73" t="inlineStr"/>
-      <c r="AC73" t="inlineStr"/>
-      <c r="AD73" t="inlineStr"/>
-      <c r="AE73" t="inlineStr"/>
+      <c r="T73" t="n">
+        <v>1472</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="V73" t="n">
+        <v>10824620</v>
+      </c>
+      <c r="W73" t="n">
+        <v>7079</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>1112</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>13.576</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>171</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -6124,18 +7492,42 @@
       <c r="S74" t="n">
         <v>735</v>
       </c>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-      <c r="Z74" t="inlineStr"/>
-      <c r="AA74" t="inlineStr"/>
-      <c r="AB74" t="inlineStr"/>
-      <c r="AC74" t="inlineStr"/>
-      <c r="AD74" t="inlineStr"/>
-      <c r="AE74" t="inlineStr"/>
+      <c r="T74" t="n">
+        <v>1472</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="V74" t="n">
+        <v>10824620</v>
+      </c>
+      <c r="W74" t="n">
+        <v>7079</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>1112</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>13.576</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>171</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -6290,18 +7682,42 @@
       <c r="S76" t="n">
         <v>734</v>
       </c>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-      <c r="Z76" t="inlineStr"/>
-      <c r="AA76" t="inlineStr"/>
-      <c r="AB76" t="inlineStr"/>
-      <c r="AC76" t="inlineStr"/>
-      <c r="AD76" t="inlineStr"/>
-      <c r="AE76" t="inlineStr"/>
+      <c r="T76" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V76" t="n">
+        <v>10824921</v>
+      </c>
+      <c r="W76" t="n">
+        <v>7078</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>1113</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>13.588</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -6361,18 +7777,42 @@
       <c r="S77" t="n">
         <v>732</v>
       </c>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr"/>
-      <c r="AA77" t="inlineStr"/>
-      <c r="AB77" t="inlineStr"/>
-      <c r="AC77" t="inlineStr"/>
-      <c r="AD77" t="inlineStr"/>
-      <c r="AE77" t="inlineStr"/>
+      <c r="T77" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V77" t="n">
+        <v>10824921</v>
+      </c>
+      <c r="W77" t="n">
+        <v>7078</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>1113</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>13.588</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -6432,18 +7872,42 @@
       <c r="S78" t="n">
         <v>728</v>
       </c>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="inlineStr"/>
-      <c r="AA78" t="inlineStr"/>
-      <c r="AB78" t="inlineStr"/>
-      <c r="AC78" t="inlineStr"/>
-      <c r="AD78" t="inlineStr"/>
-      <c r="AE78" t="inlineStr"/>
+      <c r="T78" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V78" t="n">
+        <v>10824921</v>
+      </c>
+      <c r="W78" t="n">
+        <v>7078</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>1113</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>13.588</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -6503,18 +7967,42 @@
       <c r="S79" t="n">
         <v>730</v>
       </c>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr"/>
-      <c r="AA79" t="inlineStr"/>
-      <c r="AB79" t="inlineStr"/>
-      <c r="AC79" t="inlineStr"/>
-      <c r="AD79" t="inlineStr"/>
-      <c r="AE79" t="inlineStr"/>
+      <c r="T79" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V79" t="n">
+        <v>10824921</v>
+      </c>
+      <c r="W79" t="n">
+        <v>7078</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>1113</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>13.588</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -6669,18 +8157,42 @@
       <c r="S81" t="n">
         <v>730</v>
       </c>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr"/>
-      <c r="AA81" t="inlineStr"/>
-      <c r="AB81" t="inlineStr"/>
-      <c r="AC81" t="inlineStr"/>
-      <c r="AD81" t="inlineStr"/>
-      <c r="AE81" t="inlineStr"/>
+      <c r="T81" t="n">
+        <v>1472</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="V81" t="n">
+        <v>10825221</v>
+      </c>
+      <c r="W81" t="n">
+        <v>7075</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>1116</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>13.625</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -6740,18 +8252,42 @@
       <c r="S82" t="n">
         <v>728</v>
       </c>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
-      <c r="Z82" t="inlineStr"/>
-      <c r="AA82" t="inlineStr"/>
-      <c r="AB82" t="inlineStr"/>
-      <c r="AC82" t="inlineStr"/>
-      <c r="AD82" t="inlineStr"/>
-      <c r="AE82" t="inlineStr"/>
+      <c r="T82" t="n">
+        <v>1472</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="V82" t="n">
+        <v>10825221</v>
+      </c>
+      <c r="W82" t="n">
+        <v>7075</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>1116</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>13.625</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -6811,18 +8347,42 @@
       <c r="S83" t="n">
         <v>729</v>
       </c>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
-      <c r="Z83" t="inlineStr"/>
-      <c r="AA83" t="inlineStr"/>
-      <c r="AB83" t="inlineStr"/>
-      <c r="AC83" t="inlineStr"/>
-      <c r="AD83" t="inlineStr"/>
-      <c r="AE83" t="inlineStr"/>
+      <c r="T83" t="n">
+        <v>1472</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="V83" t="n">
+        <v>10825221</v>
+      </c>
+      <c r="W83" t="n">
+        <v>7075</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>1116</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>13.625</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -6882,18 +8442,42 @@
       <c r="S84" t="n">
         <v>728</v>
       </c>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr"/>
-      <c r="AA84" t="inlineStr"/>
-      <c r="AB84" t="inlineStr"/>
-      <c r="AC84" t="inlineStr"/>
-      <c r="AD84" t="inlineStr"/>
-      <c r="AE84" t="inlineStr"/>
+      <c r="T84" t="n">
+        <v>1472</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="V84" t="n">
+        <v>10825221</v>
+      </c>
+      <c r="W84" t="n">
+        <v>7075</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>1116</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>13.625</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -7048,18 +8632,42 @@
       <c r="S86" t="n">
         <v>728</v>
       </c>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
-      <c r="Z86" t="inlineStr"/>
-      <c r="AA86" t="inlineStr"/>
-      <c r="AB86" t="inlineStr"/>
-      <c r="AC86" t="inlineStr"/>
-      <c r="AD86" t="inlineStr"/>
-      <c r="AE86" t="inlineStr"/>
+      <c r="T86" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V86" t="n">
+        <v>10825521</v>
+      </c>
+      <c r="W86" t="n">
+        <v>7074</v>
+      </c>
+      <c r="X86" t="n">
+        <v>68</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>1117</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>13.637</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -7119,18 +8727,42 @@
       <c r="S87" t="n">
         <v>726</v>
       </c>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
-      <c r="Z87" t="inlineStr"/>
-      <c r="AA87" t="inlineStr"/>
-      <c r="AB87" t="inlineStr"/>
-      <c r="AC87" t="inlineStr"/>
-      <c r="AD87" t="inlineStr"/>
-      <c r="AE87" t="inlineStr"/>
+      <c r="T87" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V87" t="n">
+        <v>10825521</v>
+      </c>
+      <c r="W87" t="n">
+        <v>7074</v>
+      </c>
+      <c r="X87" t="n">
+        <v>68</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>1117</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>13.637</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -7190,18 +8822,42 @@
       <c r="S88" t="n">
         <v>726</v>
       </c>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
-      <c r="Z88" t="inlineStr"/>
-      <c r="AA88" t="inlineStr"/>
-      <c r="AB88" t="inlineStr"/>
-      <c r="AC88" t="inlineStr"/>
-      <c r="AD88" t="inlineStr"/>
-      <c r="AE88" t="inlineStr"/>
+      <c r="T88" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V88" t="n">
+        <v>10825521</v>
+      </c>
+      <c r="W88" t="n">
+        <v>7074</v>
+      </c>
+      <c r="X88" t="n">
+        <v>68</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>1117</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>13.637</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -7261,18 +8917,42 @@
       <c r="S89" t="n">
         <v>727</v>
       </c>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
-      <c r="Z89" t="inlineStr"/>
-      <c r="AA89" t="inlineStr"/>
-      <c r="AB89" t="inlineStr"/>
-      <c r="AC89" t="inlineStr"/>
-      <c r="AD89" t="inlineStr"/>
-      <c r="AE89" t="inlineStr"/>
+      <c r="T89" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V89" t="n">
+        <v>10825521</v>
+      </c>
+      <c r="W89" t="n">
+        <v>7074</v>
+      </c>
+      <c r="X89" t="n">
+        <v>68</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>1117</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>13.637</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -7427,18 +9107,42 @@
       <c r="S91" t="n">
         <v>727</v>
       </c>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
-      <c r="Z91" t="inlineStr"/>
-      <c r="AA91" t="inlineStr"/>
-      <c r="AB91" t="inlineStr"/>
-      <c r="AC91" t="inlineStr"/>
-      <c r="AD91" t="inlineStr"/>
-      <c r="AE91" t="inlineStr"/>
+      <c r="T91" t="n">
+        <v>1472</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="V91" t="n">
+        <v>10825821</v>
+      </c>
+      <c r="W91" t="n">
+        <v>7072</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>1119</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>13.661</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -7498,18 +9202,42 @@
       <c r="S92" t="n">
         <v>727</v>
       </c>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
-      <c r="Z92" t="inlineStr"/>
-      <c r="AA92" t="inlineStr"/>
-      <c r="AB92" t="inlineStr"/>
-      <c r="AC92" t="inlineStr"/>
-      <c r="AD92" t="inlineStr"/>
-      <c r="AE92" t="inlineStr"/>
+      <c r="T92" t="n">
+        <v>1472</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="V92" t="n">
+        <v>10825821</v>
+      </c>
+      <c r="W92" t="n">
+        <v>7072</v>
+      </c>
+      <c r="X92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>1119</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>13.661</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -7569,18 +9297,42 @@
       <c r="S93" t="n">
         <v>727</v>
       </c>
-      <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
-      <c r="Z93" t="inlineStr"/>
-      <c r="AA93" t="inlineStr"/>
-      <c r="AB93" t="inlineStr"/>
-      <c r="AC93" t="inlineStr"/>
-      <c r="AD93" t="inlineStr"/>
-      <c r="AE93" t="inlineStr"/>
+      <c r="T93" t="n">
+        <v>1472</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="V93" t="n">
+        <v>10825821</v>
+      </c>
+      <c r="W93" t="n">
+        <v>7072</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>1119</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>13.661</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -7640,18 +9392,42 @@
       <c r="S94" t="n">
         <v>726</v>
       </c>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr"/>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
-      <c r="Z94" t="inlineStr"/>
-      <c r="AA94" t="inlineStr"/>
-      <c r="AB94" t="inlineStr"/>
-      <c r="AC94" t="inlineStr"/>
-      <c r="AD94" t="inlineStr"/>
-      <c r="AE94" t="inlineStr"/>
+      <c r="T94" t="n">
+        <v>1472</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="V94" t="n">
+        <v>10825821</v>
+      </c>
+      <c r="W94" t="n">
+        <v>7072</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>1119</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>13.661</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -7806,18 +9582,42 @@
       <c r="S96" t="n">
         <v>725</v>
       </c>
-      <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
-      <c r="Z96" t="inlineStr"/>
-      <c r="AA96" t="inlineStr"/>
-      <c r="AB96" t="inlineStr"/>
-      <c r="AC96" t="inlineStr"/>
-      <c r="AD96" t="inlineStr"/>
-      <c r="AE96" t="inlineStr"/>
+      <c r="T96" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U96" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V96" t="n">
+        <v>10826121</v>
+      </c>
+      <c r="W96" t="n">
+        <v>7072</v>
+      </c>
+      <c r="X96" t="n">
+        <v>68</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>1119</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>13.661</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -7877,18 +9677,42 @@
       <c r="S97" t="n">
         <v>725</v>
       </c>
-      <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
-      <c r="Z97" t="inlineStr"/>
-      <c r="AA97" t="inlineStr"/>
-      <c r="AB97" t="inlineStr"/>
-      <c r="AC97" t="inlineStr"/>
-      <c r="AD97" t="inlineStr"/>
-      <c r="AE97" t="inlineStr"/>
+      <c r="T97" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V97" t="n">
+        <v>10826121</v>
+      </c>
+      <c r="W97" t="n">
+        <v>7072</v>
+      </c>
+      <c r="X97" t="n">
+        <v>68</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>1119</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>13.661</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -7948,18 +9772,42 @@
       <c r="S98" t="n">
         <v>724</v>
       </c>
-      <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
-      <c r="Z98" t="inlineStr"/>
-      <c r="AA98" t="inlineStr"/>
-      <c r="AB98" t="inlineStr"/>
-      <c r="AC98" t="inlineStr"/>
-      <c r="AD98" t="inlineStr"/>
-      <c r="AE98" t="inlineStr"/>
+      <c r="T98" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U98" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V98" t="n">
+        <v>10826121</v>
+      </c>
+      <c r="W98" t="n">
+        <v>7072</v>
+      </c>
+      <c r="X98" t="n">
+        <v>68</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>1119</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>13.661</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -8019,18 +9867,42 @@
       <c r="S99" t="n">
         <v>726</v>
       </c>
-      <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
-      <c r="Z99" t="inlineStr"/>
-      <c r="AA99" t="inlineStr"/>
-      <c r="AB99" t="inlineStr"/>
-      <c r="AC99" t="inlineStr"/>
-      <c r="AD99" t="inlineStr"/>
-      <c r="AE99" t="inlineStr"/>
+      <c r="T99" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U99" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V99" t="n">
+        <v>10826121</v>
+      </c>
+      <c r="W99" t="n">
+        <v>7072</v>
+      </c>
+      <c r="X99" t="n">
+        <v>68</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>1119</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>13.661</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -8185,18 +10057,42 @@
       <c r="S101" t="n">
         <v>725</v>
       </c>
-      <c r="T101" t="inlineStr"/>
-      <c r="U101" t="inlineStr"/>
-      <c r="V101" t="inlineStr"/>
-      <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
-      <c r="Z101" t="inlineStr"/>
-      <c r="AA101" t="inlineStr"/>
-      <c r="AB101" t="inlineStr"/>
-      <c r="AC101" t="inlineStr"/>
-      <c r="AD101" t="inlineStr"/>
-      <c r="AE101" t="inlineStr"/>
+      <c r="T101" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U101" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V101" t="n">
+        <v>10826421</v>
+      </c>
+      <c r="W101" t="n">
+        <v>7071</v>
+      </c>
+      <c r="X101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>1120</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>13.674</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -8256,18 +10152,42 @@
       <c r="S102" t="n">
         <v>727</v>
       </c>
-      <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
-      <c r="Z102" t="inlineStr"/>
-      <c r="AA102" t="inlineStr"/>
-      <c r="AB102" t="inlineStr"/>
-      <c r="AC102" t="inlineStr"/>
-      <c r="AD102" t="inlineStr"/>
-      <c r="AE102" t="inlineStr"/>
+      <c r="T102" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U102" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V102" t="n">
+        <v>10826421</v>
+      </c>
+      <c r="W102" t="n">
+        <v>7071</v>
+      </c>
+      <c r="X102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>1120</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>13.674</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -8327,18 +10247,42 @@
       <c r="S103" t="n">
         <v>724</v>
       </c>
-      <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr"/>
-      <c r="W103" t="inlineStr"/>
-      <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr"/>
-      <c r="Z103" t="inlineStr"/>
-      <c r="AA103" t="inlineStr"/>
-      <c r="AB103" t="inlineStr"/>
-      <c r="AC103" t="inlineStr"/>
-      <c r="AD103" t="inlineStr"/>
-      <c r="AE103" t="inlineStr"/>
+      <c r="T103" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U103" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V103" t="n">
+        <v>10826421</v>
+      </c>
+      <c r="W103" t="n">
+        <v>7071</v>
+      </c>
+      <c r="X103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>1120</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>13.674</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -8398,18 +10342,42 @@
       <c r="S104" t="n">
         <v>722</v>
       </c>
-      <c r="T104" t="inlineStr"/>
-      <c r="U104" t="inlineStr"/>
-      <c r="V104" t="inlineStr"/>
-      <c r="W104" t="inlineStr"/>
-      <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr"/>
-      <c r="Z104" t="inlineStr"/>
-      <c r="AA104" t="inlineStr"/>
-      <c r="AB104" t="inlineStr"/>
-      <c r="AC104" t="inlineStr"/>
-      <c r="AD104" t="inlineStr"/>
-      <c r="AE104" t="inlineStr"/>
+      <c r="T104" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U104" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V104" t="n">
+        <v>10826421</v>
+      </c>
+      <c r="W104" t="n">
+        <v>7071</v>
+      </c>
+      <c r="X104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>1120</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>13.674</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -8564,18 +10532,42 @@
       <c r="S106" t="n">
         <v>722</v>
       </c>
-      <c r="T106" t="inlineStr"/>
-      <c r="U106" t="inlineStr"/>
-      <c r="V106" t="inlineStr"/>
-      <c r="W106" t="inlineStr"/>
-      <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr"/>
-      <c r="Z106" t="inlineStr"/>
-      <c r="AA106" t="inlineStr"/>
-      <c r="AB106" t="inlineStr"/>
-      <c r="AC106" t="inlineStr"/>
-      <c r="AD106" t="inlineStr"/>
-      <c r="AE106" t="inlineStr"/>
+      <c r="T106" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U106" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V106" t="n">
+        <v>10826721</v>
+      </c>
+      <c r="W106" t="n">
+        <v>7068</v>
+      </c>
+      <c r="X106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>1123</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -8635,18 +10627,42 @@
       <c r="S107" t="n">
         <v>721</v>
       </c>
-      <c r="T107" t="inlineStr"/>
-      <c r="U107" t="inlineStr"/>
-      <c r="V107" t="inlineStr"/>
-      <c r="W107" t="inlineStr"/>
-      <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr"/>
-      <c r="Z107" t="inlineStr"/>
-      <c r="AA107" t="inlineStr"/>
-      <c r="AB107" t="inlineStr"/>
-      <c r="AC107" t="inlineStr"/>
-      <c r="AD107" t="inlineStr"/>
-      <c r="AE107" t="inlineStr"/>
+      <c r="T107" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U107" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V107" t="n">
+        <v>10826721</v>
+      </c>
+      <c r="W107" t="n">
+        <v>7068</v>
+      </c>
+      <c r="X107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>1123</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -8706,18 +10722,42 @@
       <c r="S108" t="n">
         <v>723</v>
       </c>
-      <c r="T108" t="inlineStr"/>
-      <c r="U108" t="inlineStr"/>
-      <c r="V108" t="inlineStr"/>
-      <c r="W108" t="inlineStr"/>
-      <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr"/>
-      <c r="Z108" t="inlineStr"/>
-      <c r="AA108" t="inlineStr"/>
-      <c r="AB108" t="inlineStr"/>
-      <c r="AC108" t="inlineStr"/>
-      <c r="AD108" t="inlineStr"/>
-      <c r="AE108" t="inlineStr"/>
+      <c r="T108" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V108" t="n">
+        <v>10826721</v>
+      </c>
+      <c r="W108" t="n">
+        <v>7068</v>
+      </c>
+      <c r="X108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>1123</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -8777,18 +10817,42 @@
       <c r="S109" t="n">
         <v>725</v>
       </c>
-      <c r="T109" t="inlineStr"/>
-      <c r="U109" t="inlineStr"/>
-      <c r="V109" t="inlineStr"/>
-      <c r="W109" t="inlineStr"/>
-      <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr"/>
-      <c r="Z109" t="inlineStr"/>
-      <c r="AA109" t="inlineStr"/>
-      <c r="AB109" t="inlineStr"/>
-      <c r="AC109" t="inlineStr"/>
-      <c r="AD109" t="inlineStr"/>
-      <c r="AE109" t="inlineStr"/>
+      <c r="T109" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U109" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V109" t="n">
+        <v>10826721</v>
+      </c>
+      <c r="W109" t="n">
+        <v>7068</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>1123</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -8943,18 +11007,42 @@
       <c r="S111" t="n">
         <v>719</v>
       </c>
-      <c r="T111" t="inlineStr"/>
-      <c r="U111" t="inlineStr"/>
-      <c r="V111" t="inlineStr"/>
-      <c r="W111" t="inlineStr"/>
-      <c r="X111" t="inlineStr"/>
-      <c r="Y111" t="inlineStr"/>
-      <c r="Z111" t="inlineStr"/>
-      <c r="AA111" t="inlineStr"/>
-      <c r="AB111" t="inlineStr"/>
-      <c r="AC111" t="inlineStr"/>
-      <c r="AD111" t="inlineStr"/>
-      <c r="AE111" t="inlineStr"/>
+      <c r="T111" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U111" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V111" t="n">
+        <v>10827021</v>
+      </c>
+      <c r="W111" t="n">
+        <v>7067</v>
+      </c>
+      <c r="X111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>1124</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>13.722</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -9014,18 +11102,42 @@
       <c r="S112" t="n">
         <v>720</v>
       </c>
-      <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr"/>
-      <c r="V112" t="inlineStr"/>
-      <c r="W112" t="inlineStr"/>
-      <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="inlineStr"/>
-      <c r="Z112" t="inlineStr"/>
-      <c r="AA112" t="inlineStr"/>
-      <c r="AB112" t="inlineStr"/>
-      <c r="AC112" t="inlineStr"/>
-      <c r="AD112" t="inlineStr"/>
-      <c r="AE112" t="inlineStr"/>
+      <c r="T112" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U112" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V112" t="n">
+        <v>10827021</v>
+      </c>
+      <c r="W112" t="n">
+        <v>7067</v>
+      </c>
+      <c r="X112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>1124</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>13.722</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -9085,18 +11197,42 @@
       <c r="S113" t="n">
         <v>721</v>
       </c>
-      <c r="T113" t="inlineStr"/>
-      <c r="U113" t="inlineStr"/>
-      <c r="V113" t="inlineStr"/>
-      <c r="W113" t="inlineStr"/>
-      <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr"/>
-      <c r="Z113" t="inlineStr"/>
-      <c r="AA113" t="inlineStr"/>
-      <c r="AB113" t="inlineStr"/>
-      <c r="AC113" t="inlineStr"/>
-      <c r="AD113" t="inlineStr"/>
-      <c r="AE113" t="inlineStr"/>
+      <c r="T113" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U113" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V113" t="n">
+        <v>10827021</v>
+      </c>
+      <c r="W113" t="n">
+        <v>7067</v>
+      </c>
+      <c r="X113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>1124</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>13.722</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -9156,18 +11292,42 @@
       <c r="S114" t="n">
         <v>720</v>
       </c>
-      <c r="T114" t="inlineStr"/>
-      <c r="U114" t="inlineStr"/>
-      <c r="V114" t="inlineStr"/>
-      <c r="W114" t="inlineStr"/>
-      <c r="X114" t="inlineStr"/>
-      <c r="Y114" t="inlineStr"/>
-      <c r="Z114" t="inlineStr"/>
-      <c r="AA114" t="inlineStr"/>
-      <c r="AB114" t="inlineStr"/>
-      <c r="AC114" t="inlineStr"/>
-      <c r="AD114" t="inlineStr"/>
-      <c r="AE114" t="inlineStr"/>
+      <c r="T114" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U114" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V114" t="n">
+        <v>10827021</v>
+      </c>
+      <c r="W114" t="n">
+        <v>7067</v>
+      </c>
+      <c r="X114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>1124</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>13.722</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -9322,18 +11482,42 @@
       <c r="S116" t="n">
         <v>719</v>
       </c>
-      <c r="T116" t="inlineStr"/>
-      <c r="U116" t="inlineStr"/>
-      <c r="V116" t="inlineStr"/>
-      <c r="W116" t="inlineStr"/>
-      <c r="X116" t="inlineStr"/>
-      <c r="Y116" t="inlineStr"/>
-      <c r="Z116" t="inlineStr"/>
-      <c r="AA116" t="inlineStr"/>
-      <c r="AB116" t="inlineStr"/>
-      <c r="AC116" t="inlineStr"/>
-      <c r="AD116" t="inlineStr"/>
-      <c r="AE116" t="inlineStr"/>
+      <c r="T116" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U116" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V116" t="n">
+        <v>10827321</v>
+      </c>
+      <c r="W116" t="n">
+        <v>7067</v>
+      </c>
+      <c r="X116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>1124</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>13.722</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -9393,18 +11577,42 @@
       <c r="S117" t="n">
         <v>719</v>
       </c>
-      <c r="T117" t="inlineStr"/>
-      <c r="U117" t="inlineStr"/>
-      <c r="V117" t="inlineStr"/>
-      <c r="W117" t="inlineStr"/>
-      <c r="X117" t="inlineStr"/>
-      <c r="Y117" t="inlineStr"/>
-      <c r="Z117" t="inlineStr"/>
-      <c r="AA117" t="inlineStr"/>
-      <c r="AB117" t="inlineStr"/>
-      <c r="AC117" t="inlineStr"/>
-      <c r="AD117" t="inlineStr"/>
-      <c r="AE117" t="inlineStr"/>
+      <c r="T117" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U117" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V117" t="n">
+        <v>10827321</v>
+      </c>
+      <c r="W117" t="n">
+        <v>7067</v>
+      </c>
+      <c r="X117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>1124</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>13.722</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -9464,18 +11672,42 @@
       <c r="S118" t="n">
         <v>719</v>
       </c>
-      <c r="T118" t="inlineStr"/>
-      <c r="U118" t="inlineStr"/>
-      <c r="V118" t="inlineStr"/>
-      <c r="W118" t="inlineStr"/>
-      <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
-      <c r="Z118" t="inlineStr"/>
-      <c r="AA118" t="inlineStr"/>
-      <c r="AB118" t="inlineStr"/>
-      <c r="AC118" t="inlineStr"/>
-      <c r="AD118" t="inlineStr"/>
-      <c r="AE118" t="inlineStr"/>
+      <c r="T118" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U118" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V118" t="n">
+        <v>10827321</v>
+      </c>
+      <c r="W118" t="n">
+        <v>7067</v>
+      </c>
+      <c r="X118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>1124</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>13.722</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -9535,18 +11767,42 @@
       <c r="S119" t="n">
         <v>718</v>
       </c>
-      <c r="T119" t="inlineStr"/>
-      <c r="U119" t="inlineStr"/>
-      <c r="V119" t="inlineStr"/>
-      <c r="W119" t="inlineStr"/>
-      <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="inlineStr"/>
-      <c r="Z119" t="inlineStr"/>
-      <c r="AA119" t="inlineStr"/>
-      <c r="AB119" t="inlineStr"/>
-      <c r="AC119" t="inlineStr"/>
-      <c r="AD119" t="inlineStr"/>
-      <c r="AE119" t="inlineStr"/>
+      <c r="T119" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U119" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V119" t="n">
+        <v>10827321</v>
+      </c>
+      <c r="W119" t="n">
+        <v>7067</v>
+      </c>
+      <c r="X119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>1124</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>13.722</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -9796,18 +12052,42 @@
       <c r="S122" t="n">
         <v>719</v>
       </c>
-      <c r="T122" t="inlineStr"/>
-      <c r="U122" t="inlineStr"/>
-      <c r="V122" t="inlineStr"/>
-      <c r="W122" t="inlineStr"/>
-      <c r="X122" t="inlineStr"/>
-      <c r="Y122" t="inlineStr"/>
-      <c r="Z122" t="inlineStr"/>
-      <c r="AA122" t="inlineStr"/>
-      <c r="AB122" t="inlineStr"/>
-      <c r="AC122" t="inlineStr"/>
-      <c r="AD122" t="inlineStr"/>
-      <c r="AE122" t="inlineStr"/>
+      <c r="T122" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U122" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V122" t="n">
+        <v>10827621</v>
+      </c>
+      <c r="W122" t="n">
+        <v>7065</v>
+      </c>
+      <c r="X122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>1126</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>13.747</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -9867,18 +12147,42 @@
       <c r="S123" t="n">
         <v>720</v>
       </c>
-      <c r="T123" t="inlineStr"/>
-      <c r="U123" t="inlineStr"/>
-      <c r="V123" t="inlineStr"/>
-      <c r="W123" t="inlineStr"/>
-      <c r="X123" t="inlineStr"/>
-      <c r="Y123" t="inlineStr"/>
-      <c r="Z123" t="inlineStr"/>
-      <c r="AA123" t="inlineStr"/>
-      <c r="AB123" t="inlineStr"/>
-      <c r="AC123" t="inlineStr"/>
-      <c r="AD123" t="inlineStr"/>
-      <c r="AE123" t="inlineStr"/>
+      <c r="T123" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U123" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V123" t="n">
+        <v>10827621</v>
+      </c>
+      <c r="W123" t="n">
+        <v>7065</v>
+      </c>
+      <c r="X123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>1126</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>13.747</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -9938,18 +12242,42 @@
       <c r="S124" t="n">
         <v>719</v>
       </c>
-      <c r="T124" t="inlineStr"/>
-      <c r="U124" t="inlineStr"/>
-      <c r="V124" t="inlineStr"/>
-      <c r="W124" t="inlineStr"/>
-      <c r="X124" t="inlineStr"/>
-      <c r="Y124" t="inlineStr"/>
-      <c r="Z124" t="inlineStr"/>
-      <c r="AA124" t="inlineStr"/>
-      <c r="AB124" t="inlineStr"/>
-      <c r="AC124" t="inlineStr"/>
-      <c r="AD124" t="inlineStr"/>
-      <c r="AE124" t="inlineStr"/>
+      <c r="T124" t="n">
+        <v>1440</v>
+      </c>
+      <c r="U124" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="V124" t="n">
+        <v>10827621</v>
+      </c>
+      <c r="W124" t="n">
+        <v>7065</v>
+      </c>
+      <c r="X124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>1126</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>13.747</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -10104,18 +12432,42 @@
       <c r="S126" t="n">
         <v>720</v>
       </c>
-      <c r="T126" t="inlineStr"/>
-      <c r="U126" t="inlineStr"/>
-      <c r="V126" t="inlineStr"/>
-      <c r="W126" t="inlineStr"/>
-      <c r="X126" t="inlineStr"/>
-      <c r="Y126" t="inlineStr"/>
-      <c r="Z126" t="inlineStr"/>
-      <c r="AA126" t="inlineStr"/>
-      <c r="AB126" t="inlineStr"/>
-      <c r="AC126" t="inlineStr"/>
-      <c r="AD126" t="inlineStr"/>
-      <c r="AE126" t="inlineStr"/>
+      <c r="T126" t="n">
+        <v>1504</v>
+      </c>
+      <c r="U126" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="V126" t="n">
+        <v>10827920</v>
+      </c>
+      <c r="W126" t="n">
+        <v>7065</v>
+      </c>
+      <c r="X126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>1126</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>13.747</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -10175,18 +12527,42 @@
       <c r="S127" t="n">
         <v>720</v>
       </c>
-      <c r="T127" t="inlineStr"/>
-      <c r="U127" t="inlineStr"/>
-      <c r="V127" t="inlineStr"/>
-      <c r="W127" t="inlineStr"/>
-      <c r="X127" t="inlineStr"/>
-      <c r="Y127" t="inlineStr"/>
-      <c r="Z127" t="inlineStr"/>
-      <c r="AA127" t="inlineStr"/>
-      <c r="AB127" t="inlineStr"/>
-      <c r="AC127" t="inlineStr"/>
-      <c r="AD127" t="inlineStr"/>
-      <c r="AE127" t="inlineStr"/>
+      <c r="T127" t="n">
+        <v>1504</v>
+      </c>
+      <c r="U127" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="V127" t="n">
+        <v>10827920</v>
+      </c>
+      <c r="W127" t="n">
+        <v>7065</v>
+      </c>
+      <c r="X127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>1126</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>13.747</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -10246,18 +12622,42 @@
       <c r="S128" t="n">
         <v>718</v>
       </c>
-      <c r="T128" t="inlineStr"/>
-      <c r="U128" t="inlineStr"/>
-      <c r="V128" t="inlineStr"/>
-      <c r="W128" t="inlineStr"/>
-      <c r="X128" t="inlineStr"/>
-      <c r="Y128" t="inlineStr"/>
-      <c r="Z128" t="inlineStr"/>
-      <c r="AA128" t="inlineStr"/>
-      <c r="AB128" t="inlineStr"/>
-      <c r="AC128" t="inlineStr"/>
-      <c r="AD128" t="inlineStr"/>
-      <c r="AE128" t="inlineStr"/>
+      <c r="T128" t="n">
+        <v>1504</v>
+      </c>
+      <c r="U128" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="V128" t="n">
+        <v>10827920</v>
+      </c>
+      <c r="W128" t="n">
+        <v>7065</v>
+      </c>
+      <c r="X128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>1126</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>13.747</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -10317,18 +12717,42 @@
       <c r="S129" t="n">
         <v>718</v>
       </c>
-      <c r="T129" t="inlineStr"/>
-      <c r="U129" t="inlineStr"/>
-      <c r="V129" t="inlineStr"/>
-      <c r="W129" t="inlineStr"/>
-      <c r="X129" t="inlineStr"/>
-      <c r="Y129" t="inlineStr"/>
-      <c r="Z129" t="inlineStr"/>
-      <c r="AA129" t="inlineStr"/>
-      <c r="AB129" t="inlineStr"/>
-      <c r="AC129" t="inlineStr"/>
-      <c r="AD129" t="inlineStr"/>
-      <c r="AE129" t="inlineStr"/>
+      <c r="T129" t="n">
+        <v>1504</v>
+      </c>
+      <c r="U129" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="V129" t="n">
+        <v>10827920</v>
+      </c>
+      <c r="W129" t="n">
+        <v>7065</v>
+      </c>
+      <c r="X129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>1126</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>13.747</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -10483,18 +12907,42 @@
       <c r="S131" t="n">
         <v>719</v>
       </c>
-      <c r="T131" t="inlineStr"/>
-      <c r="U131" t="inlineStr"/>
-      <c r="V131" t="inlineStr"/>
-      <c r="W131" t="inlineStr"/>
-      <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="inlineStr"/>
-      <c r="Z131" t="inlineStr"/>
-      <c r="AA131" t="inlineStr"/>
-      <c r="AB131" t="inlineStr"/>
-      <c r="AC131" t="inlineStr"/>
-      <c r="AD131" t="inlineStr"/>
-      <c r="AE131" t="inlineStr"/>
+      <c r="T131" t="n">
+        <v>1504</v>
+      </c>
+      <c r="U131" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="V131" t="n">
+        <v>10828220</v>
+      </c>
+      <c r="W131" t="n">
+        <v>7065</v>
+      </c>
+      <c r="X131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>1126</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>13.747</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -10554,18 +13002,42 @@
       <c r="S132" t="n">
         <v>718</v>
       </c>
-      <c r="T132" t="inlineStr"/>
-      <c r="U132" t="inlineStr"/>
-      <c r="V132" t="inlineStr"/>
-      <c r="W132" t="inlineStr"/>
-      <c r="X132" t="inlineStr"/>
-      <c r="Y132" t="inlineStr"/>
-      <c r="Z132" t="inlineStr"/>
-      <c r="AA132" t="inlineStr"/>
-      <c r="AB132" t="inlineStr"/>
-      <c r="AC132" t="inlineStr"/>
-      <c r="AD132" t="inlineStr"/>
-      <c r="AE132" t="inlineStr"/>
+      <c r="T132" t="n">
+        <v>1504</v>
+      </c>
+      <c r="U132" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="V132" t="n">
+        <v>10828220</v>
+      </c>
+      <c r="W132" t="n">
+        <v>7065</v>
+      </c>
+      <c r="X132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>1126</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>13.747</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -10625,18 +13097,42 @@
       <c r="S133" t="n">
         <v>719</v>
       </c>
-      <c r="T133" t="inlineStr"/>
-      <c r="U133" t="inlineStr"/>
-      <c r="V133" t="inlineStr"/>
-      <c r="W133" t="inlineStr"/>
-      <c r="X133" t="inlineStr"/>
-      <c r="Y133" t="inlineStr"/>
-      <c r="Z133" t="inlineStr"/>
-      <c r="AA133" t="inlineStr"/>
-      <c r="AB133" t="inlineStr"/>
-      <c r="AC133" t="inlineStr"/>
-      <c r="AD133" t="inlineStr"/>
-      <c r="AE133" t="inlineStr"/>
+      <c r="T133" t="n">
+        <v>1504</v>
+      </c>
+      <c r="U133" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="V133" t="n">
+        <v>10828220</v>
+      </c>
+      <c r="W133" t="n">
+        <v>7065</v>
+      </c>
+      <c r="X133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>1126</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>13.747</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -10696,18 +13192,42 @@
       <c r="S134" t="n">
         <v>720</v>
       </c>
-      <c r="T134" t="inlineStr"/>
-      <c r="U134" t="inlineStr"/>
-      <c r="V134" t="inlineStr"/>
-      <c r="W134" t="inlineStr"/>
-      <c r="X134" t="inlineStr"/>
-      <c r="Y134" t="inlineStr"/>
-      <c r="Z134" t="inlineStr"/>
-      <c r="AA134" t="inlineStr"/>
-      <c r="AB134" t="inlineStr"/>
-      <c r="AC134" t="inlineStr"/>
-      <c r="AD134" t="inlineStr"/>
-      <c r="AE134" t="inlineStr"/>
+      <c r="T134" t="n">
+        <v>1504</v>
+      </c>
+      <c r="U134" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="V134" t="n">
+        <v>10828220</v>
+      </c>
+      <c r="W134" t="n">
+        <v>7065</v>
+      </c>
+      <c r="X134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>1126</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>13.747</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -10862,18 +13382,42 @@
       <c r="S136" t="n">
         <v>720</v>
       </c>
-      <c r="T136" t="inlineStr"/>
-      <c r="U136" t="inlineStr"/>
-      <c r="V136" t="inlineStr"/>
-      <c r="W136" t="inlineStr"/>
-      <c r="X136" t="inlineStr"/>
-      <c r="Y136" t="inlineStr"/>
-      <c r="Z136" t="inlineStr"/>
-      <c r="AA136" t="inlineStr"/>
-      <c r="AB136" t="inlineStr"/>
-      <c r="AC136" t="inlineStr"/>
-      <c r="AD136" t="inlineStr"/>
-      <c r="AE136" t="inlineStr"/>
+      <c r="T136" t="n">
+        <v>1504</v>
+      </c>
+      <c r="U136" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="V136" t="n">
+        <v>10828520</v>
+      </c>
+      <c r="W136" t="n">
+        <v>7064</v>
+      </c>
+      <c r="X136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>1127</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>13.759</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -10933,18 +13477,42 @@
       <c r="S137" t="n">
         <v>719</v>
       </c>
-      <c r="T137" t="inlineStr"/>
-      <c r="U137" t="inlineStr"/>
-      <c r="V137" t="inlineStr"/>
-      <c r="W137" t="inlineStr"/>
-      <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="inlineStr"/>
-      <c r="Z137" t="inlineStr"/>
-      <c r="AA137" t="inlineStr"/>
-      <c r="AB137" t="inlineStr"/>
-      <c r="AC137" t="inlineStr"/>
-      <c r="AD137" t="inlineStr"/>
-      <c r="AE137" t="inlineStr"/>
+      <c r="T137" t="n">
+        <v>1504</v>
+      </c>
+      <c r="U137" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="V137" t="n">
+        <v>10828520</v>
+      </c>
+      <c r="W137" t="n">
+        <v>7064</v>
+      </c>
+      <c r="X137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>1127</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>13.759</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -11004,18 +13572,42 @@
       <c r="S138" t="n">
         <v>719</v>
       </c>
-      <c r="T138" t="inlineStr"/>
-      <c r="U138" t="inlineStr"/>
-      <c r="V138" t="inlineStr"/>
-      <c r="W138" t="inlineStr"/>
-      <c r="X138" t="inlineStr"/>
-      <c r="Y138" t="inlineStr"/>
-      <c r="Z138" t="inlineStr"/>
-      <c r="AA138" t="inlineStr"/>
-      <c r="AB138" t="inlineStr"/>
-      <c r="AC138" t="inlineStr"/>
-      <c r="AD138" t="inlineStr"/>
-      <c r="AE138" t="inlineStr"/>
+      <c r="T138" t="n">
+        <v>1504</v>
+      </c>
+      <c r="U138" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="V138" t="n">
+        <v>10828520</v>
+      </c>
+      <c r="W138" t="n">
+        <v>7064</v>
+      </c>
+      <c r="X138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>1127</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>13.759</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -11075,18 +13667,42 @@
       <c r="S139" t="n">
         <v>721</v>
       </c>
-      <c r="T139" t="inlineStr"/>
-      <c r="U139" t="inlineStr"/>
-      <c r="V139" t="inlineStr"/>
-      <c r="W139" t="inlineStr"/>
-      <c r="X139" t="inlineStr"/>
-      <c r="Y139" t="inlineStr"/>
-      <c r="Z139" t="inlineStr"/>
-      <c r="AA139" t="inlineStr"/>
-      <c r="AB139" t="inlineStr"/>
-      <c r="AC139" t="inlineStr"/>
-      <c r="AD139" t="inlineStr"/>
-      <c r="AE139" t="inlineStr"/>
+      <c r="T139" t="n">
+        <v>1504</v>
+      </c>
+      <c r="U139" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="V139" t="n">
+        <v>10828520</v>
+      </c>
+      <c r="W139" t="n">
+        <v>7064</v>
+      </c>
+      <c r="X139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>1127</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>13.759</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -11241,18 +13857,42 @@
       <c r="S141" t="n">
         <v>721</v>
       </c>
-      <c r="T141" t="inlineStr"/>
-      <c r="U141" t="inlineStr"/>
-      <c r="V141" t="inlineStr"/>
-      <c r="W141" t="inlineStr"/>
-      <c r="X141" t="inlineStr"/>
-      <c r="Y141" t="inlineStr"/>
-      <c r="Z141" t="inlineStr"/>
-      <c r="AA141" t="inlineStr"/>
-      <c r="AB141" t="inlineStr"/>
-      <c r="AC141" t="inlineStr"/>
-      <c r="AD141" t="inlineStr"/>
-      <c r="AE141" t="inlineStr"/>
+      <c r="T141" t="n">
+        <v>1504</v>
+      </c>
+      <c r="U141" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="V141" t="n">
+        <v>10828820</v>
+      </c>
+      <c r="W141" t="n">
+        <v>7065</v>
+      </c>
+      <c r="X141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>1126</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>13.747</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -11312,18 +13952,42 @@
       <c r="S142" t="n">
         <v>720</v>
       </c>
-      <c r="T142" t="inlineStr"/>
-      <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
-      <c r="W142" t="inlineStr"/>
-      <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr"/>
-      <c r="Z142" t="inlineStr"/>
-      <c r="AA142" t="inlineStr"/>
-      <c r="AB142" t="inlineStr"/>
-      <c r="AC142" t="inlineStr"/>
-      <c r="AD142" t="inlineStr"/>
-      <c r="AE142" t="inlineStr"/>
+      <c r="T142" t="n">
+        <v>1504</v>
+      </c>
+      <c r="U142" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="V142" t="n">
+        <v>10828820</v>
+      </c>
+      <c r="W142" t="n">
+        <v>7065</v>
+      </c>
+      <c r="X142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>1126</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>13.747</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -11383,18 +14047,42 @@
       <c r="S143" t="n">
         <v>720</v>
       </c>
-      <c r="T143" t="inlineStr"/>
-      <c r="U143" t="inlineStr"/>
-      <c r="V143" t="inlineStr"/>
-      <c r="W143" t="inlineStr"/>
-      <c r="X143" t="inlineStr"/>
-      <c r="Y143" t="inlineStr"/>
-      <c r="Z143" t="inlineStr"/>
-      <c r="AA143" t="inlineStr"/>
-      <c r="AB143" t="inlineStr"/>
-      <c r="AC143" t="inlineStr"/>
-      <c r="AD143" t="inlineStr"/>
-      <c r="AE143" t="inlineStr"/>
+      <c r="T143" t="n">
+        <v>1504</v>
+      </c>
+      <c r="U143" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="V143" t="n">
+        <v>10828820</v>
+      </c>
+      <c r="W143" t="n">
+        <v>7065</v>
+      </c>
+      <c r="X143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>1126</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>13.747</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -11403,37 +14091,93 @@
       <c r="B144" t="n">
         <v>98.31999999999999</v>
       </c>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.84</v>
+      </c>
       <c r="E144" t="n">
         <v>1.01</v>
       </c>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr"/>
-      <c r="T144" t="inlineStr"/>
-      <c r="U144" t="inlineStr"/>
-      <c r="V144" t="inlineStr"/>
-      <c r="W144" t="inlineStr"/>
-      <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr"/>
-      <c r="Z144" t="inlineStr"/>
-      <c r="AA144" t="inlineStr"/>
-      <c r="AB144" t="inlineStr"/>
-      <c r="AC144" t="inlineStr"/>
-      <c r="AD144" t="inlineStr"/>
-      <c r="AE144" t="inlineStr"/>
+      <c r="F144" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L144" t="n">
+        <v>3114</v>
+      </c>
+      <c r="M144" t="n">
+        <v>130</v>
+      </c>
+      <c r="N144" t="n">
+        <v>19</v>
+      </c>
+      <c r="O144" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="P144" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>82</v>
+      </c>
+      <c r="R144" t="n">
+        <v>3069</v>
+      </c>
+      <c r="S144" t="n">
+        <v>720</v>
+      </c>
+      <c r="T144" t="n">
+        <v>1504</v>
+      </c>
+      <c r="U144" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="V144" t="n">
+        <v>10828820</v>
+      </c>
+      <c r="W144" t="n">
+        <v>7065</v>
+      </c>
+      <c r="X144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>1126</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>13.747</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
